--- a/data/trans_bre/P19-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>5.97816011799357</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6.590000090710019</v>
+        <v>6.590000090710016</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3678033461138152</v>
@@ -649,7 +649,7 @@
         <v>0.2094531329679938</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.2971215133258888</v>
+        <v>0.2971215133258887</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.923156285532343</v>
+        <v>3.445084999870623</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.434806706996726</v>
+        <v>2.73698990327575</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3407248641172799</v>
+        <v>1.279567362172704</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.953672534532332</v>
+        <v>2.327177613559661</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1576740416621852</v>
+        <v>0.1403857130948346</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0924602920345666</v>
+        <v>0.1062537259305583</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.009095120695355998</v>
+        <v>0.03798870378185986</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.07827325885002695</v>
+        <v>0.09387449033446675</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.51277500948389</v>
+        <v>12.89039013406132</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.84779236014561</v>
+        <v>11.83878016801892</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.72813907996479</v>
+        <v>11.97870681635206</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.26905857031826</v>
+        <v>10.97440511024912</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6138132070261644</v>
+        <v>0.6300143899193269</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5951266002439689</v>
+        <v>0.5737973099577509</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4119118617291538</v>
+        <v>0.4584490659050255</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.5825025987329521</v>
+        <v>0.5697886418659007</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>7.462840279168464</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3.286956718700884</v>
+        <v>3.286956718700876</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2640635575757221</v>
@@ -749,7 +749,7 @@
         <v>0.2640862360658069</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.1377178207043711</v>
+        <v>0.1377178207043707</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.523303393146054</v>
+        <v>2.512509381358999</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.15162503924287</v>
+        <v>2.421046135521427</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.327629437917715</v>
+        <v>3.390963501877269</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.9186002535588159</v>
+        <v>-0.5401009235683671</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.0943219009027203</v>
+        <v>0.09598981126882566</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08074785974599745</v>
+        <v>0.09223747065481774</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1079714081810099</v>
+        <v>0.1099994379291166</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.03529403658831168</v>
+        <v>-0.02079041825527095</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>10.70075985189629</v>
+        <v>11.21098582787377</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.48893672784179</v>
+        <v>10.24460017785645</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11.70420540536233</v>
+        <v>11.66074181035212</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.992023625087023</v>
+        <v>7.095957752356306</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4616735619504353</v>
+        <v>0.4931544692654115</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4868950412847866</v>
+        <v>0.4757710800938054</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.447646266525582</v>
+        <v>0.4502356367558055</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3183942397729306</v>
+        <v>0.3275910803420443</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>3.831666531318012</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.67387412342976</v>
+        <v>3.673874123429771</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1852438841465161</v>
@@ -849,7 +849,7 @@
         <v>0.1231386103835487</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1225976632693627</v>
+        <v>0.1225976632693631</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.3163939582939595</v>
+        <v>0.09460530711743552</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.30554057659725</v>
+        <v>-2.215646812264446</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.020035170620236</v>
+        <v>-0.6721475859414465</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.8519008312358396</v>
+        <v>-1.090173979330749</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.01126998345102633</v>
+        <v>-0.0005533648017245015</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.07968628991606266</v>
+        <v>-0.07569318348513657</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.03112833928168966</v>
+        <v>-0.01768005437040158</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.02740893839409662</v>
+        <v>-0.0339117411743417</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.09430383584201</v>
+        <v>10.29217453420136</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.342857478021614</v>
+        <v>7.843805405486957</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.025827879834733</v>
+        <v>9.44986342630413</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.560138760715349</v>
+        <v>8.136014075814476</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4008188617462193</v>
+        <v>0.4197519714202795</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3049718918648553</v>
+        <v>0.3289516660491178</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3118104473990259</v>
+        <v>0.33077516833665</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3182385594412676</v>
+        <v>0.3002373638504648</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.41925471342409</v>
+        <v>2.002037111409466</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.909118806705554</v>
+        <v>1.743722253622551</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5174364984081607</v>
+        <v>0.2217174388955139</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.644975878521357</v>
+        <v>2.04473499960933</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.08385633642753255</v>
+        <v>0.07474560678423496</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06898700096948111</v>
+        <v>0.06351855732353812</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01599685625823074</v>
+        <v>0.006789713142501353</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.04872813452511165</v>
+        <v>0.05842668128616882</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>10.03528558124955</v>
+        <v>9.940609909750226</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.10836478995883</v>
+        <v>10.15932399707548</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.71059129964387</v>
+        <v>8.680905581146119</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9.99661564981429</v>
+        <v>10.0373193122586</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4362790821016355</v>
+        <v>0.4442916007221645</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4261306934011305</v>
+        <v>0.4272614943135181</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.330261024022764</v>
+        <v>0.3217458111371596</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3789658674911279</v>
+        <v>0.3699904463316512</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>5.478264444350484</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4.817977169485566</v>
+        <v>4.81797716948556</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2600292380484498</v>
@@ -1049,7 +1049,7 @@
         <v>0.1885252827185047</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.1830320425102384</v>
+        <v>0.1830320425102382</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.343114033970245</v>
+        <v>4.206642823165589</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.535317358219878</v>
+        <v>3.539709917899354</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.278488041674565</v>
+        <v>3.355593992874593</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.727615090978445</v>
+        <v>2.717586574655213</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1660670226455143</v>
+        <v>0.1619381608392835</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1386014453412365</v>
+        <v>0.1343176123288355</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1093991201233495</v>
+        <v>0.1132512683833352</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.0969832826018166</v>
+        <v>0.09805527390205086</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.739624439758968</v>
+        <v>8.5600487444271</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.969027983281679</v>
+        <v>7.717219111384265</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.75758960143332</v>
+        <v>7.738147663108931</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.037301654958758</v>
+        <v>7.042887283308433</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3663977583601246</v>
+        <v>0.3596757819915951</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3387505466035582</v>
+        <v>0.3247252283110686</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2776462238911628</v>
+        <v>0.2833339625553585</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2794786205818889</v>
+        <v>0.2794558937771994</v>
       </c>
     </row>
     <row r="19">
